--- a/data/Конкуренция и трофические связи (Общая экология для биоинженеров 2022)(1-26).xlsx
+++ b/data/Конкуренция и трофические связи (Общая экология для биоинженеров 2022)(1-26).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Почта</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Айвазян Ирина</t>
+  </si>
+  <si>
+    <t>st103323@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Семён Казарин</t>
   </si>
 </sst>
 </file>
@@ -192,12 +198,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,44 +220,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,29 +335,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,187 +365,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,15 +596,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,149 +662,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -897,8 +896,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C28" totalsRowShown="0">
-  <autoFilter ref="A1:C28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C29" totalsRowShown="0">
+  <autoFilter ref="A1:C29"/>
   <tableColumns count="3">
     <tableColumn id="4" name="Почта" dataDxfId="0"/>
     <tableColumn id="5" name="Имя" dataDxfId="1"/>
@@ -1166,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1485,6 +1484,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
